--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsi-Adan\Documents\GitHub\AFRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCA19A7-D9DE-4D17-B433-DC461FAC3665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA89F51-1FEA-4900-B1F6-617A70F58A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="5" xr2:uid="{788BA45F-CFC8-4167-8F28-A7056DBDCFE9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{788BA45F-CFC8-4167-8F28-A7056DBDCFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="projetos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>1.2.1</t>
-  </si>
-  <si>
-    <t>31/04/2023</t>
   </si>
   <si>
     <t>manases</t>
@@ -496,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422739A6-C1EF-41C5-BFD2-8B6B729EE2A2}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -548,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -563,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1">
-        <v>45018</v>
+        <v>45018.416666666664</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -574,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -589,7 +586,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="1">
-        <v>45017</v>
+        <v>45017.416666666664</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -600,13 +597,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -615,10 +612,10 @@
         <v>16</v>
       </c>
       <c r="H4" s="1">
-        <v>45015</v>
+        <v>45015.416666666664</v>
       </c>
       <c r="I4" s="1">
-        <v>45017</v>
+        <v>45017.635682870372</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -629,13 +626,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -644,10 +641,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="1">
-        <v>44995</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
+        <v>44995.416666666664</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45016.434571759259</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +657,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -699,6 +696,9 @@
       <c r="A2">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" t="str">
         <f>VLOOKUP(D2,projetos!B:C,2,0)</f>
         <v>bryan</v>
@@ -724,8 +724,11 @@
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -734,13 +737,22 @@
         <f>VLOOKUP(D3,projetos!B:D,3,0)</f>
         <v>thais</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45018.483159722222</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -749,13 +761,22 @@
         <f>VLOOKUP(D4,projetos!B:D,3,0)</f>
         <v>manases</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45017.548900462964</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -763,6 +784,15 @@
       <c r="E5" t="str">
         <f>VLOOKUP(D5,projetos!B:D,3,0)</f>
         <v>thais</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45005.416666666664</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45006.639236111114</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +806,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -802,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -826,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -897,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -931,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -942,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -957,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09306D0F-311E-4738-9A55-FFE044A46B40}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsi-Adan\Documents\GitHub\AFRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA89F51-1FEA-4900-B1F6-617A70F58A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A3176-22DD-4BC8-A4FD-E3EF2398F6AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{788BA45F-CFC8-4167-8F28-A7056DBDCFE9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{788BA45F-CFC8-4167-8F28-A7056DBDCFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="projetos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>alterando visuais</t>
+  </si>
+  <si>
+    <t>vanderlei</t>
+  </si>
+  <si>
+    <t>porwer point</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422739A6-C1EF-41C5-BFD2-8B6B729EE2A2}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -803,92 +809,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594C54C0-8686-4F8D-B7B9-91EBBE7A2909}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -937,10 +987,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACAF0C5-4A65-42EA-A052-D3FBDC2224B5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,6 +1026,17 @@
       </c>
       <c r="C3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsi-Adan\Documents\GitHub\AFRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A3176-22DD-4BC8-A4FD-E3EF2398F6AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729B29E5-9009-46FB-BBC6-5EE54DEC756B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{788BA45F-CFC8-4167-8F28-A7056DBDCFE9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -144,14 +144,25 @@
   </si>
   <si>
     <t>porwer point</t>
+  </si>
+  <si>
+    <t>gustavo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,10 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +824,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +836,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -943,41 +955,62 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD072E2F-931D-4906-B3AB-8135F89F0D7F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
